--- a/Copia de TICS FINALES 11-10-17.xlsx
+++ b/Copia de TICS FINALES 11-10-17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="2832"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11496" windowHeight="2832"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -864,111 +864,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,15 +890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +910,120 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,7 +1623,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1639,16 +1639,16 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="58"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="107"/>
     </row>
     <row r="2" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1662,27 +1662,27 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="73" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="116" t="s">
         <v>81</v>
       </c>
       <c r="M3" s="1"/>
@@ -1692,7 +1692,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1703,7 +1703,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="117"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="74"/>
+      <c r="L5" s="117"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1730,7 +1730,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="74"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1749,22 +1749,22 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="65" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="74"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1772,22 +1772,22 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="74"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1795,7 +1795,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1806,7 +1806,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="74"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1814,7 +1814,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1825,7 +1825,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1833,7 +1833,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1844,7 +1844,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="74"/>
+      <c r="L11" s="117"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1852,7 +1852,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="117"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1882,7 +1882,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1890,20 +1890,20 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1911,22 +1911,22 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="65" t="s">
+      <c r="E15" s="97"/>
+      <c r="F15" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="74"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1934,22 +1934,22 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="71" t="s">
+      <c r="E16" s="115"/>
+      <c r="F16" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="74"/>
+      <c r="L16" s="117"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1957,7 +1957,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1968,7 +1968,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="74"/>
+      <c r="L17" s="117"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1976,7 +1976,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1987,7 +1987,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="74"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1995,7 +1995,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2006,7 +2006,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="74"/>
+      <c r="L19" s="117"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2014,7 +2014,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="74"/>
+      <c r="L20" s="117"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2033,7 +2033,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2044,7 +2044,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="74"/>
+      <c r="L21" s="117"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2052,20 +2052,20 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="74"/>
+      <c r="L22" s="117"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2073,22 +2073,22 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="65" t="s">
+      <c r="F23" s="97"/>
+      <c r="G23" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="74"/>
+      <c r="L23" s="117"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2096,22 +2096,22 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="83" t="s">
+      <c r="F24" s="115"/>
+      <c r="G24" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="101"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="75"/>
+      <c r="L24" s="118"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2119,7 +2119,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2137,31 +2137,31 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
-      <c r="B26" s="88" t="s">
+    <row r="26" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="87"/>
+      <c r="B26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="59"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2179,29 +2179,29 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94" t="s">
+    <row r="28" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="87"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2219,31 +2219,31 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
-      <c r="B30" s="88" t="s">
+    <row r="30" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="87"/>
+      <c r="B30" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2261,29 +2261,29 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94" t="s">
+    <row r="32" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="87"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2301,31 +2301,31 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" s="95" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
-      <c r="B34" s="88" t="s">
+    <row r="34" spans="1:17" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2343,29 +2343,29 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94" t="s">
+    <row r="36" spans="1:17" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="101"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="66"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2383,31 +2383,31 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
-      <c r="B38" s="88" t="s">
+    <row r="38" spans="1:17" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="87"/>
+      <c r="B38" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2426,12 +2426,12 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="70"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2447,7 +2447,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2465,31 +2465,31 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" s="95" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="88" t="s">
+    <row r="42" spans="1:17" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="87"/>
+      <c r="B42" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
     </row>
     <row r="43" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -2507,71 +2507,71 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="106" t="s">
+    <row r="44" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="77"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="87"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="104"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="77"/>
-      <c r="B46" s="107" t="s">
+    <row r="46" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="19"/>
       <c r="C47" s="18"/>
       <c r="D47" s="15"/>
@@ -2589,29 +2589,29 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="77"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="110" t="s">
+    <row r="48" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="77"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
       <c r="D49" s="15"/>
@@ -2629,31 +2629,31 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="77"/>
-      <c r="B50" s="112" t="s">
+    <row r="50" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="87"/>
+      <c r="B50" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="113" t="s">
+      <c r="C50" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="94"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="59"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="77"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
@@ -2672,12 +2672,12 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="77"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="82"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="77"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2711,31 +2711,31 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="77"/>
-      <c r="B54" s="107" t="s">
+    <row r="54" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="87"/>
+      <c r="B54" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="115" t="s">
+      <c r="C54" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="77"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="19"/>
       <c r="C55" s="25"/>
       <c r="D55" s="24"/>
@@ -2754,12 +2754,12 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="77"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="70"/>
+      <c r="D56" s="86"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2775,7 +2775,7 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="77"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2794,7 +2794,7 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="77"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="6"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -2812,31 +2812,31 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="88" t="s">
+    <row r="59" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="87"/>
+      <c r="B59" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="117" t="s">
+      <c r="C59" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="77"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="16"/>
       <c r="C60" s="49"/>
       <c r="D60" s="15"/>
@@ -2854,29 +2854,29 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="118" t="s">
+    <row r="61" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="87"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="116"/>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="116"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="77"/>
+      <c r="A62" s="87"/>
       <c r="B62" s="1"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -2896,27 +2896,27 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="80"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="89"/>
+      <c r="Q63" s="90"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="84" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="76"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="Q65" s="11"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="76"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="29"/>
       <c r="C66" s="30"/>
       <c r="D66" s="13"/>
@@ -2981,7 +2981,7 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="76"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27" t="s">
         <v>49</v>
@@ -3002,7 +3002,7 @@
       <c r="Q67" s="11"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="76"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3021,7 +3021,7 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="76"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="5" t="s">
         <v>9</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="Q69" s="45"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="76"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="76"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="4"/>
       <c r="C71" s="36" t="s">
         <v>53</v>
@@ -3084,7 +3084,7 @@
       <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="76"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
       <c r="D72" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="76"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="5" t="s">
         <v>11</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="Q73" s="11"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="76"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3145,7 +3145,7 @@
       <c r="Q74" s="1"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="76"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="Q75" s="11"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="76"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3187,7 +3187,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="76"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="31" t="s">
         <v>14</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="Q77" s="42"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="76"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="32"/>
       <c r="C78" s="33"/>
       <c r="D78" s="1"/>
@@ -3229,7 +3229,7 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="76"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="4"/>
       <c r="C79" s="27" t="s">
         <v>52</v>
@@ -3250,7 +3250,7 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="76"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3269,7 +3269,7 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="76"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3288,7 +3288,7 @@
       <c r="Q81" s="1"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="76"/>
+      <c r="A82" s="84"/>
       <c r="B82" s="5" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="76"/>
+      <c r="A83" s="84"/>
       <c r="B83" s="19"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3330,7 +3330,7 @@
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="76"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="1"/>
       <c r="C84" s="36" t="s">
         <v>53</v>
@@ -3351,7 +3351,7 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="76"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3370,7 +3370,7 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="76"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="9" t="s">
         <v>16</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="76"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="16"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3412,7 +3412,7 @@
       <c r="Q87" s="1"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="76"/>
+      <c r="A88" s="84"/>
       <c r="B88" s="16"/>
       <c r="C88" s="27" t="s">
         <v>84</v>
@@ -3433,7 +3433,7 @@
       <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="76"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3670,20 +3670,20 @@
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B101" s="8"/>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82"/>
+      <c r="K101" s="82"/>
+      <c r="L101" s="82"/>
+      <c r="M101" s="82"/>
+      <c r="N101" s="83"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -3788,18 +3788,18 @@
       <c r="B107" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="55"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="83"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -3825,19 +3825,19 @@
       <c r="Q108" s="1"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B109" s="11"/>
-      <c r="C109" s="53" t="s">
+      <c r="B109" s="1"/>
+      <c r="C109" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="55"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="82"/>
+      <c r="K109" s="82"/>
+      <c r="L109" s="83"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -3924,20 +3924,20 @@
       <c r="B114" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="55"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="83"/>
       <c r="O114" s="10"/>
       <c r="P114" s="52"/>
       <c r="Q114" s="1"/>
@@ -4273,20 +4273,20 @@
       <c r="B132" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="55"/>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+      <c r="I132" s="82"/>
+      <c r="J132" s="82"/>
+      <c r="K132" s="82"/>
+      <c r="L132" s="82"/>
+      <c r="M132" s="82"/>
+      <c r="N132" s="83"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
     </row>
@@ -4549,20 +4549,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="A64:A89"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C101:N101"/>
-    <mergeCell ref="A1:A62"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C132:N132"/>
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="M1:Q2"/>
@@ -4579,6 +4565,20 @@
     <mergeCell ref="L3:L24"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="C107:L107"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="A64:A89"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C101:N101"/>
+    <mergeCell ref="A1:A62"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="300" r:id="rId1"/>

--- a/Copia de TICS FINALES 11-10-17.xlsx
+++ b/Copia de TICS FINALES 11-10-17.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sistemas\GitHub-Repositorios\MilDias\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11496" windowHeight="2832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="2835"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$1:$Q$89</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>SMS VOLUNTARIO Y GRATUITO PARA EMBARAZADAS</t>
   </si>
@@ -285,13 +280,16 @@
   </si>
   <si>
     <t xml:space="preserve">Mamá los golpes, los insultos y las palabras ofensivas dirigidas a los niños los dañan y lastiman, es importanet crear un ambiente agradable y feliz. </t>
+  </si>
+  <si>
+    <t>Mamá te podes sentir con muchos cambios emocionales y fisicos, si son muy intensos podes consultar con un equipo de psicologia, que estan a tu disposicion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,8 +372,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,12 +411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
@@ -788,139 +797,133 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -928,16 +931,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,84 +967,62 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,7 +1362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,10 +1394,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1430,7 +1428,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1606,24 +1603,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107:L107"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="17" max="17" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:17" ht="53.25" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1639,16 +1636,16 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="107"/>
-    </row>
-    <row r="2" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="62"/>
+    </row>
+    <row r="2" spans="1:17" ht="44.25" customHeight="1">
+      <c r="A2" s="81"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1662,27 +1659,27 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="65"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="81"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="116" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="77" t="s">
         <v>81</v>
       </c>
       <c r="M3" s="1"/>
@@ -1691,8 +1688,8 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:17">
+      <c r="A4" s="81"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1703,15 +1700,15 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="117"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:17">
+      <c r="A5" s="81"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1722,15 +1719,15 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="117"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:17">
+      <c r="A6" s="81"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1741,61 +1738,61 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="117"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:17">
+      <c r="A7" s="81"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="96" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="117"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:17" ht="68.25" customHeight="1">
+      <c r="A8" s="81"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="98" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="117"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:17">
+      <c r="A9" s="81"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1806,15 +1803,15 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="117"/>
+      <c r="L9" s="78"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+    <row r="10" spans="1:17">
+      <c r="A10" s="81"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1825,15 +1822,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="117"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
+    <row r="11" spans="1:17">
+      <c r="A11" s="81"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1844,15 +1841,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="117"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:17">
+      <c r="A12" s="81"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1863,15 +1860,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="117"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:17">
+      <c r="A13" s="81"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1882,82 +1879,82 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="117"/>
+      <c r="L13" s="78"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:17" ht="45.75" customHeight="1">
+      <c r="A14" s="81"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="117"/>
+      <c r="L14" s="78"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:17">
+      <c r="A15" s="81"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="96" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="97"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="117"/>
+      <c r="L15" s="78"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:17" ht="64.5" customHeight="1">
+      <c r="A16" s="81"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="99"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="117"/>
+      <c r="L16" s="78"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:17">
+      <c r="A17" s="81"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1968,15 +1965,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="117"/>
+      <c r="L17" s="78"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+    <row r="18" spans="1:17">
+      <c r="A18" s="81"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1987,15 +1984,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="117"/>
+      <c r="L18" s="78"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
+    <row r="19" spans="1:17">
+      <c r="A19" s="81"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2006,15 +2003,15 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="117"/>
+      <c r="L19" s="78"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
+    <row r="20" spans="1:17">
+      <c r="A20" s="81"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2025,15 +2022,15 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="117"/>
+      <c r="L20" s="78"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+    <row r="21" spans="1:17">
+      <c r="A21" s="81"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2044,82 +2041,82 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="117"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+    <row r="22" spans="1:17" ht="33" customHeight="1">
+      <c r="A22" s="81"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="99"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="117"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+    <row r="23" spans="1:17">
+      <c r="A23" s="81"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="96" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="97"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="117"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
+    <row r="24" spans="1:17" ht="100.5" customHeight="1">
+      <c r="A24" s="81"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="114" t="s">
+      <c r="E24" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="100" t="s">
+      <c r="F24" s="72"/>
+      <c r="G24" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="101"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="118"/>
+      <c r="L24" s="79"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
+    <row r="25" spans="1:17">
+      <c r="A25" s="81"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2137,31 +2134,31 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="53" t="s">
+    <row r="26" spans="1:17" s="39" customFormat="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="59"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="81"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2179,29 +2176,29 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59" t="s">
+    <row r="28" spans="1:17" s="39" customFormat="1">
+      <c r="A28" s="81"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="81"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2219,31 +2216,31 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="53" t="s">
+    <row r="30" spans="1:17" s="39" customFormat="1">
+      <c r="A30" s="81"/>
+      <c r="B30" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="81"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2261,29 +2258,29 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59" t="s">
+    <row r="32" spans="1:17" s="39" customFormat="1">
+      <c r="A32" s="81"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="81"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2301,31 +2298,31 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="53" t="s">
+    <row r="34" spans="1:17" s="39" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="81"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2343,29 +2340,29 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="66"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
+    <row r="36" spans="1:17" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="81"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="45"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="81"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2383,31 +2380,31 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
-      <c r="B38" s="53" t="s">
+    <row r="38" spans="1:17" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="81"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2425,13 +2422,13 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
+    <row r="40" spans="1:17">
+      <c r="A40" s="81"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="86"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2446,8 +2443,8 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
+    <row r="41" spans="1:17">
+      <c r="A41" s="81"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2465,219 +2462,219 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="53" t="s">
+    <row r="42" spans="1:17" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-    </row>
-    <row r="43" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+    </row>
+    <row r="43" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A43" s="81"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="68" t="s">
+    <row r="44" spans="1:17" s="39" customFormat="1">
+      <c r="A44" s="81"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="81"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="104"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="94"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="69" t="s">
+    <row r="46" spans="1:17" s="39" customFormat="1">
+      <c r="A46" s="81"/>
+      <c r="B46" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="81"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="72" t="s">
+    <row r="48" spans="1:17" s="39" customFormat="1">
+      <c r="A48" s="81"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="81"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="74" t="s">
+    <row r="50" spans="1:17" s="39" customFormat="1">
+      <c r="A50" s="81"/>
+      <c r="B50" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="59"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="38"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="81"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
+    <row r="52" spans="1:17">
+      <c r="A52" s="81"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="91" t="s">
+      <c r="C52" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="92"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2692,8 +2689,8 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
+    <row r="53" spans="1:17">
+      <c r="A53" s="81"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2711,40 +2708,40 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="87"/>
-      <c r="B54" s="69" t="s">
+    <row r="54" spans="1:17" s="39" customFormat="1">
+      <c r="A54" s="81"/>
+      <c r="B54" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="77" t="s">
+      <c r="C54" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="87"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="81"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -2753,13 +2750,13 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
+    <row r="56" spans="1:17">
+      <c r="A56" s="81"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="86"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2774,8 +2771,8 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
+    <row r="57" spans="1:17">
+      <c r="A57" s="81"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2793,216 +2790,216 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
+    <row r="58" spans="1:17">
+      <c r="A58" s="81"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="87"/>
-      <c r="B59" s="53" t="s">
+    <row r="59" spans="1:17" s="39" customFormat="1">
+      <c r="A59" s="81"/>
+      <c r="B59" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="87"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="81"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="80" t="s">
+    <row r="61" spans="1:17" s="39" customFormat="1">
+      <c r="A61" s="81"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="87"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="81"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="88" t="s">
+    <row r="63" spans="1:17">
+      <c r="A63" s="5"/>
+      <c r="B63" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="89"/>
-      <c r="N63" s="89"/>
-      <c r="O63" s="89"/>
-      <c r="P63" s="89"/>
-      <c r="Q63" s="90"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="84" t="s">
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="84"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="80" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="84"/>
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="1:17" s="39" customFormat="1">
+      <c r="A65" s="80"/>
+      <c r="B65" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="11"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="84"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="38"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="80"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="84"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="27" t="s">
+    <row r="67" spans="1:17" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="80"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="84"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="80"/>
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3020,31 +3017,31 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="84"/>
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="1:17" s="39" customFormat="1">
+      <c r="A69" s="80"/>
+      <c r="B69" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
       <c r="O69" s="50"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="80"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3062,71 +3059,57 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="84"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+    <row r="71" spans="1:17">
+      <c r="A71" s="80"/>
+      <c r="B71" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="84"/>
+    <row r="72" spans="1:17">
+      <c r="A72" s="80"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="E72" s="112"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="84"/>
-      <c r="B73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="11"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="84"/>
+    <row r="73" spans="1:17" s="110" customFormat="1">
+      <c r="A73" s="80"/>
+      <c r="C73" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="Q73" s="111"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="80"/>
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3144,31 +3127,31 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="84"/>
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="1:17" s="39" customFormat="1">
+      <c r="A75" s="80"/>
+      <c r="B75" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="84"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="80"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3186,33 +3169,33 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="84"/>
-      <c r="B77" s="31" t="s">
+    <row r="77" spans="1:17" s="39" customFormat="1">
+      <c r="A77" s="80"/>
+      <c r="B77" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="42"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="50"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="80"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3228,29 +3211,29 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="84"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="27" t="s">
+    <row r="79" spans="1:17" s="39" customFormat="1">
+      <c r="A79" s="80"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="84"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="80"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3268,8 +3251,8 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="84"/>
+    <row r="81" spans="1:17">
+      <c r="A81" s="80"/>
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3287,32 +3270,32 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="84"/>
-      <c r="B82" s="5" t="s">
+    <row r="82" spans="1:17" s="39" customFormat="1">
+      <c r="A82" s="80"/>
+      <c r="B82" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="51"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="84"/>
-      <c r="B83" s="19"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="98"/>
+      <c r="O82" s="99"/>
+      <c r="P82" s="50"/>
+      <c r="Q82" s="38"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="80"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3329,29 +3312,29 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="84"/>
+    <row r="84" spans="1:17">
+      <c r="A84" s="80"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="84"/>
+    <row r="85" spans="1:17">
+      <c r="A85" s="80"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3369,32 +3352,32 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="84"/>
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="1:17" s="39" customFormat="1">
+      <c r="A86" s="80"/>
+      <c r="B86" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="84"/>
-      <c r="B87" s="16"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="38"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="80"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3411,29 +3394,29 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="84"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="27" t="s">
+    <row r="88" spans="1:17" s="39" customFormat="1">
+      <c r="A88" s="80"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="52"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="84"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="80"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3451,30 +3434,30 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:17" s="39" customFormat="1">
+      <c r="A90" s="100"/>
+      <c r="B90" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3492,29 +3475,29 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:17" s="39" customFormat="1">
+      <c r="B92" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3532,27 +3515,27 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="B94" s="1"/>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3570,7 +3553,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3588,30 +3571,30 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B97" s="9" t="s">
+    <row r="97" spans="2:17" s="39" customFormat="1">
+      <c r="B97" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B98" s="8"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="6"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3628,30 +3611,30 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B99" s="9" t="s">
+    <row r="99" spans="2:17" s="39" customFormat="1">
+      <c r="B99" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B100" s="8"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="6"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3668,28 +3651,28 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="8"/>
-      <c r="C101" s="81" t="s">
+    <row r="101" spans="2:17" s="39" customFormat="1">
+      <c r="B101" s="32"/>
+      <c r="C101" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="82"/>
-      <c r="I101" s="82"/>
-      <c r="J101" s="82"/>
-      <c r="K101" s="82"/>
-      <c r="L101" s="82"/>
-      <c r="M101" s="82"/>
-      <c r="N101" s="83"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B102" s="8"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="104"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+    </row>
+    <row r="102" spans="2:17">
+      <c r="B102" s="6"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3706,58 +3689,50 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B103" s="9" t="s">
+    <row r="103" spans="2:17" s="39" customFormat="1">
+      <c r="B103" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
+      <c r="C103" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
       <c r="H103" s="38"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="38"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+    </row>
+    <row r="104" spans="2:17">
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="L104" s="105"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:17">
       <c r="B105" s="1"/>
       <c r="C105" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -3766,7 +3741,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3784,29 +3759,29 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
+    <row r="107" spans="2:17" s="39" customFormat="1">
+      <c r="B107" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="81" t="s">
+      <c r="C107" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="103"/>
+      <c r="J107" s="103"/>
+      <c r="K107" s="103"/>
+      <c r="L107" s="104"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+    </row>
+    <row r="108" spans="2:17">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3824,27 +3799,27 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="81" t="s">
+    <row r="109" spans="2:17" s="39" customFormat="1">
+      <c r="B109" s="38"/>
+      <c r="C109" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="82"/>
-      <c r="L109" s="83"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="103"/>
+      <c r="K109" s="103"/>
+      <c r="L109" s="104"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+    </row>
+    <row r="110" spans="2:17">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3862,29 +3837,29 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B111" s="5" t="s">
+    <row r="111" spans="2:17" s="39" customFormat="1">
+      <c r="B111" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="38"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="38"/>
+    </row>
+    <row r="112" spans="2:17">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3902,7 +3877,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:17">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3920,109 +3895,109 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B114" s="9" t="s">
+    <row r="114" spans="2:17" s="39" customFormat="1">
+      <c r="B114" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="81" t="s">
+      <c r="C114" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-      <c r="L114" s="82"/>
-      <c r="M114" s="82"/>
-      <c r="N114" s="83"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="52"/>
-      <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D114" s="103"/>
+      <c r="E114" s="103"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="103"/>
+      <c r="I114" s="103"/>
+      <c r="J114" s="103"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="103"/>
+      <c r="M114" s="103"/>
+      <c r="N114" s="104"/>
+      <c r="O114" s="38"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
+    </row>
+    <row r="115" spans="2:17">
       <c r="B115" s="1"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="10"/>
-      <c r="P115" s="10"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="5" t="s">
+    <row r="116" spans="2:17" s="39" customFormat="1">
+      <c r="B116" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="38"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
+    </row>
+    <row r="117" spans="2:17">
       <c r="B117" s="1"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B118" s="5" t="s">
+    <row r="118" spans="2:17" s="39" customFormat="1">
+      <c r="B118" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="38"/>
+      <c r="P118" s="38"/>
+      <c r="Q118" s="38"/>
+    </row>
+    <row r="119" spans="2:17">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4040,29 +4015,29 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B120" s="5" t="s">
+    <row r="120" spans="2:17" s="39" customFormat="1">
+      <c r="B120" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="52"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="38"/>
+      <c r="O120" s="38"/>
+      <c r="P120" s="38"/>
+      <c r="Q120" s="38"/>
+    </row>
+    <row r="121" spans="2:17">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4079,28 +4054,28 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B122" s="5" t="s">
+    <row r="122" spans="2:17" s="39" customFormat="1">
+      <c r="B122" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="12"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="38"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="38"/>
+      <c r="O122" s="38"/>
+      <c r="P122" s="107"/>
+    </row>
+    <row r="123" spans="2:17">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4117,28 +4092,28 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B124" s="5" t="s">
+    <row r="124" spans="2:17" s="39" customFormat="1">
+      <c r="B124" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+    </row>
+    <row r="125" spans="2:17">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4155,28 +4130,28 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B126" s="5" t="s">
+    <row r="126" spans="2:17" s="39" customFormat="1">
+      <c r="B126" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="38"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="38"/>
+      <c r="O126" s="38"/>
+      <c r="P126" s="38"/>
+    </row>
+    <row r="127" spans="2:17">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4193,28 +4168,28 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B128" s="5" t="s">
+    <row r="128" spans="2:17" s="39" customFormat="1">
+      <c r="B128" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C128" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D128" s="48"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
-      <c r="K128" s="48"/>
-      <c r="L128" s="48"/>
-      <c r="M128" s="48"/>
-      <c r="N128" s="42"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D128" s="109"/>
+      <c r="E128" s="109"/>
+      <c r="F128" s="109"/>
+      <c r="G128" s="109"/>
+      <c r="H128" s="109"/>
+      <c r="I128" s="109"/>
+      <c r="J128" s="109"/>
+      <c r="K128" s="109"/>
+      <c r="L128" s="109"/>
+      <c r="M128" s="109"/>
+      <c r="N128" s="50"/>
+      <c r="O128" s="38"/>
+      <c r="P128" s="38"/>
+    </row>
+    <row r="129" spans="2:16">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4231,28 +4206,28 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B130" s="5" t="s">
+    <row r="130" spans="2:16" s="39" customFormat="1">
+      <c r="B130" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="38"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38"/>
+      <c r="N130" s="38"/>
+      <c r="O130" s="38"/>
+      <c r="P130" s="38"/>
+    </row>
+    <row r="131" spans="2:16">
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4269,28 +4244,28 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B132" s="5" t="s">
+    <row r="132" spans="2:16" s="39" customFormat="1">
+      <c r="B132" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="81" t="s">
+      <c r="C132" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D132" s="82"/>
-      <c r="E132" s="82"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="82"/>
-      <c r="I132" s="82"/>
-      <c r="J132" s="82"/>
-      <c r="K132" s="82"/>
-      <c r="L132" s="82"/>
-      <c r="M132" s="82"/>
-      <c r="N132" s="83"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D132" s="103"/>
+      <c r="E132" s="103"/>
+      <c r="F132" s="103"/>
+      <c r="G132" s="103"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="103"/>
+      <c r="J132" s="103"/>
+      <c r="K132" s="103"/>
+      <c r="L132" s="103"/>
+      <c r="M132" s="103"/>
+      <c r="N132" s="104"/>
+      <c r="O132" s="38"/>
+      <c r="P132" s="38"/>
+    </row>
+    <row r="133" spans="2:16">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -4307,26 +4282,26 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16">
       <c r="B134" s="1"/>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="35"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26"/>
+      <c r="M134" s="26"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4343,7 +4318,7 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4360,7 +4335,7 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4377,7 +4352,7 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4394,7 +4369,7 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4411,7 +4386,7 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4428,7 +4403,7 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4445,7 +4420,7 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4462,7 +4437,7 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4479,7 +4454,7 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4496,7 +4471,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4513,7 +4488,7 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4530,7 +4505,7 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4549,6 +4524,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="A64:A89"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C101:N101"/>
+    <mergeCell ref="A1:A62"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C132:N132"/>
     <mergeCell ref="C114:N114"/>
     <mergeCell ref="M1:Q2"/>
@@ -4565,20 +4554,6 @@
     <mergeCell ref="L3:L24"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="C107:L107"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="A64:A89"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C101:N101"/>
-    <mergeCell ref="A1:A62"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -4587,24 +4562,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
